--- a/Plan/Table/Live_Data/17.Status_Effect_Table.xlsx
+++ b/Plan/Table/Live_Data/17.Status_Effect_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AE4410F-EDE1-4C37-BBC7-8475221A14E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AC2C56E-84FF-4E8F-919C-0477D2DBD93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BAD4861C-6224-4FDA-8902-A65AFDE6D5AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D05869DA-B38C-458C-86DF-4764622DF779}"/>
   </bookViews>
   <sheets>
     <sheet name="17.Status_Effect_Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -63,12 +63,6 @@
   </si>
   <si>
     <t>effect_option_type_2</t>
-  </si>
-  <si>
-    <t>eot2_value_2</t>
-  </si>
-  <si>
-    <t>eot2_count</t>
   </si>
   <si>
     <t>parent_effect</t>
@@ -457,7 +451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923CF495-4CE4-444F-8C12-C86389D3CB24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F34AD5E-2CC6-43A7-B2A6-1EFB7013C261}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M51"/>
   <sheetViews>
@@ -496,16 +490,16 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
